--- a/Juan José Arreola Gonzalez/CU_JuanJoseAG_220423.xlsx
+++ b/Juan José Arreola Gonzalez/CU_JuanJoseAG_220423.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C88CEC-E1E5-48B5-BA52-3FAE45B802F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CU_07" sheetId="2" r:id="rId1"/>
     <sheet name="CU_08" sheetId="1" r:id="rId2"/>
-    <sheet name="CU_09" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Caso de uso</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Crea, actualiza, elimina información acerca de los productos que se ingresan al sistema.</t>
   </si>
   <si>
-    <t>Controlar la mercancía que entra y sale del almacén.</t>
-  </si>
-  <si>
     <t>Conocer la información de existencias de almacen.</t>
   </si>
   <si>
@@ -118,30 +115,10 @@
     <t>El dato mas escencial para crear, modificar o eliminar es el código del producto.</t>
   </si>
   <si>
-    <t>Para ver las entradas y salidas de almacén el usuario debe:
-1. Pulsar el botón de área de almacen.
-2. Si se desea buscar un producto en especifico se pedira el nombre o código del producto.</t>
-  </si>
-  <si>
-    <t>1a. Si el producto no esta en almacén se regresara un mensaje de adverencia donde indique que no se encuentra el producto.</t>
-  </si>
-  <si>
-    <t>Entradas y salidas de almacén.</t>
-  </si>
-  <si>
-    <t>Si el encargado de almacén no registra las entradas y sallidas del producto, estas no se veran reflejadas en las existencias del sistema.</t>
-  </si>
-  <si>
     <t>CU-07</t>
   </si>
   <si>
     <t>CU-08</t>
-  </si>
-  <si>
-    <t>CU-09</t>
-  </si>
-  <si>
-    <t>Almecenista y administrador</t>
   </si>
   <si>
     <t>Almacenista y Administrador</t>
@@ -191,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -548,9 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -729,7 +703,7 @@
         <xdr:cNvPr id="10" name="Imagen 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79113FE-F5C1-C1C4-58C7-5F1270B01776}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -778,7 +752,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8495BEA-74A1-4FC3-93C9-4D4C7BCDF673}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -824,7 +798,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -870,7 +850,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED2D3C6E-3220-2F9E-BFC3-89EF88E7BB4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -919,7 +899,7 @@
         <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FD2E8E-F8FF-2A0E-C744-E36E2D84DA06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -960,7 +940,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -975,142 +961,6 @@
         <a:xfrm>
           <a:off x="7321826" y="591949"/>
           <a:ext cx="5887697" cy="2887357"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>700086</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>488496</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>141569</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A55A52-CF35-97D4-B899-C97634172C74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1462086" y="5724525"/>
-          <a:ext cx="6215064" cy="3313394"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>239485</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>185057</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>247588</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>27627</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4AFA6BD-0AAB-BA28-9F43-7DD79E813AC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9013371" y="4376057"/>
-          <a:ext cx="5570703" cy="4762913"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457796</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>385283</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7944971" y="627530"/>
-          <a:ext cx="4267796" cy="2581635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1418,75 +1268,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L47"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="2:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="2:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="2:5" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="2:5" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>37</v>
+      <c r="C7" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -1495,13 +1345,13 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
@@ -1509,35 +1359,35 @@
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+    <row r="10" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+    <row r="12" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
@@ -1545,15 +1395,15 @@
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:5" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="140.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>8</v>
       </c>
@@ -1561,15 +1411,15 @@
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:12" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
@@ -1577,23 +1427,23 @@
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
@@ -1605,197 +1455,197 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
+    <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="27" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="57" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="27" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="I27" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-    </row>
-    <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="I27" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B47" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1823,89 +1673,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="G2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="G2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-    </row>
-    <row r="6" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+    </row>
+    <row r="6" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -1914,7 +1764,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1922,23 +1772,23 @@
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
+    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="B9" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
@@ -1946,15 +1796,15 @@
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:8" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+    <row r="12" spans="2:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
@@ -1962,15 +1812,15 @@
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
@@ -1978,21 +1828,21 @@
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="G16" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="G16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
@@ -2004,131 +1854,131 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
+    <row r="18" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="57" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2153,375 +2003,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="G2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-    </row>
-    <row r="6" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="19">
-        <v>44963</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-    </row>
-    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="2:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-    </row>
-    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="I15" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B21:G38"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="I15:M15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>